--- a/Status.Tracker.xlsx
+++ b/Status.Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,36 @@
   </si>
   <si>
     <t>Analyzing the table structure and Business.</t>
+  </si>
+  <si>
+    <t>testing the defects</t>
+  </si>
+  <si>
+    <t>Code changes on analysis</t>
+  </si>
+  <si>
+    <t>5. Discussing with Rajesh on Release 1</t>
+  </si>
+  <si>
+    <t>1. Pagination and Help Enhancement code change and fix</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Got few defects on fix. Testing with more test cases</t>
+  </si>
+  <si>
+    <t>2. Analyzing requirements</t>
+  </si>
+  <si>
+    <t>Analayzed all the requirements and arrived estimation for each requirement.</t>
+  </si>
+  <si>
+    <t>3. Local SQL server set up</t>
+  </si>
+  <si>
+    <t>Local SQL server is created to improve the data acces speed in local environemtn</t>
   </si>
 </sst>
 </file>
@@ -172,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,43 +220,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -261,16 +254,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,7 +601,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="105">
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>42423</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -738,80 +731,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="2:8">
+      <c r="B10" s="11"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="30">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30">
-      <c r="B11" s="9">
+    <row r="12" spans="2:8">
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="30">
+      <c r="B13" s="9">
         <v>42424</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G13" s="6">
         <v>0.2</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" ht="30">
-      <c r="B12" s="9"/>
-      <c r="C12" s="2" t="s">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" ht="30">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="30">
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" ht="60">
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -820,39 +797,59 @@
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G14" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+    <row r="15" spans="2:8" ht="30">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" ht="30">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4"/>
@@ -863,10 +860,70 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" ht="30">
+      <c r="B20" s="12">
+        <v>42425</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="60">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" ht="45">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="https://github.com/PrithiviRajG/TabAndCards "/>

--- a/Status.Tracker.xlsx
+++ b/Status.Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>Local SQL server is created to improve the data acces speed in local environemtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both devolopment testing completed. Styles and java script functions should be moved to separate file and it's on progress. </t>
+  </si>
+  <si>
+    <t>2. Analysis on Grid Requirement</t>
+  </si>
+  <si>
+    <t>Analysis completed. Have to change lots of code as currently we are not using proper Spring MVC pattern. All the code flows related to this requirement will be done in proper MVC flow</t>
+  </si>
+  <si>
+    <t>3. Spring Uplift and Hibernate implementation</t>
+  </si>
+  <si>
+    <t>Hibernate implementation is must for faster code development. Hibernate will be implemented without changing any current flow or code. Requirements in future will use Hibernate for data retieval and save operations.</t>
+  </si>
+  <si>
+    <t>4. Code Refractory</t>
+  </si>
+  <si>
+    <t>current code is very clumpsy. Clean up works should be done before touching any requirements. This includes moving style sheets and javascript functions to separate files. Scriplet tag is not recommended as it has lots of disadvantages. Further devolopment will not have scriplet tag.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +254,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,17 +274,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,7 +780,7 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -765,7 +789,7 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="30">
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>42424</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -786,7 +810,7 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="30">
-      <c r="B14" s="9"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -805,7 +829,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="9"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,7 +846,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="30">
-      <c r="B16" s="9"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
@@ -841,7 +865,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="9"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -870,7 +894,7 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="30">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>42425</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -919,6 +943,74 @@
         <v>1</v>
       </c>
       <c r="H22" s="1"/>
+    </row>
+    <row r="26" spans="2:8" ht="75">
+      <c r="B26" s="10">
+        <v>42425</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" ht="105">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" ht="150">
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" ht="180">
+      <c r="B29" s="1"/>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
